--- a/admin/upload/degreeeval_template.xlsx
+++ b/admin/upload/degreeeval_template.xlsx
@@ -41,11 +41,11 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>是否同意授予学位</t>
+    <t>学院学位评定分委员会修改意见</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>学院学位评定分委员会修改意见</t>
+    <t>答辩表决结果</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -808,6 +808,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -821,10 +889,10 @@
   <a:themeElements>
     <a:clrScheme name="Office 2007-2010">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr val="windowText" lastClr="FFFF00"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="000000"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1125,10 +1193,10 @@
         <v>1</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -2771,7 +2839,7 @@
   <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1048576">
-      <formula1>"是,否"</formula1>
+      <formula1>"同意毕业及授予学位,同意毕业，但不同意授予学位,不同意毕业"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
